--- a/DZ-8.xlsx
+++ b/DZ-8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mytraining\Business processes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DD0A533-0D15-4D8C-8311-4DF586F3DEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D85CE92-1D13-489E-8DE7-D108E3144845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{357F1C8F-D8E8-43D8-A759-C4FE73448154}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Процесс</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>5 - максимальные затраты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вывод : По итогу приоретизирования выявлено , что вторй процесс более нуждаеться в оптимизации, чем пепрвый. </t>
   </si>
 </sst>
 </file>
@@ -89,15 +92,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -105,20 +120,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -434,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6432350D-50DE-4401-83FD-9B9C843C5052}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,106 +488,122 @@
     <col min="8" max="8" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>5</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>0</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>0</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>1</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <v>2</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="2">
         <v>2</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="2">
         <f>SUM(B2:H2)</f>
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>4</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>2</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>3</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>3</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>2</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>2</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <v>3</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="2">
         <f>SUM(B3:H3)</f>
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>12</v>
       </c>
     </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B8:J8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
